--- a/notes/Pathogensandtrees.xlsx
+++ b/notes/Pathogensandtrees.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darwinsodhi/Documents/GitHub/Coexistence-in-BC-Forests/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2514A08-627F-D048-AA6E-3A487DF029AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A40FE21B-3390-854F-8104-04689FF5504F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25440" windowHeight="14820" xr2:uid="{86FD508B-5B3A-A646-86AF-A821B2F173DD}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25440" windowHeight="14780" activeTab="1" xr2:uid="{86FD508B-5B3A-A646-86AF-A821B2F173DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="66">
   <si>
     <t>Species</t>
   </si>
@@ -223,6 +223,15 @@
   </si>
   <si>
     <t>started May 28th 2020 by Darwin Shikra Sodhi</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Hight</t>
   </si>
 </sst>
 </file>
@@ -595,7 +604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{819D64D7-060E-CA42-8D71-BFD30EAD3215}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -840,32 +849,56 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{454143FA-1C04-EF4D-A82F-DA6E2BEF77E5}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/notes/Pathogensandtrees.xlsx
+++ b/notes/Pathogensandtrees.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darwinsodhi/Documents/GitHub/Coexistence-in-BC-Forests/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A40FE21B-3390-854F-8104-04689FF5504F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879FD36A-56CE-F34A-9D2F-ADCAFE902DA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25440" windowHeight="14780" activeTab="1" xr2:uid="{86FD508B-5B3A-A646-86AF-A821B2F173DD}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25440" windowHeight="14780" xr2:uid="{86FD508B-5B3A-A646-86AF-A821B2F173DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="70">
   <si>
     <t>Species</t>
   </si>
@@ -232,13 +232,25 @@
   </si>
   <si>
     <t>Hight</t>
+  </si>
+  <si>
+    <t>fungicide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No chemical product is approved in Canada for this purpose. However, a biological product was approved in 2014: Rotstop® C. </t>
+  </si>
+  <si>
+    <t>Currently, only Phlebiopsis gigantea is registered for use to control Heterobasidion irregulare in Canada.</t>
+  </si>
+  <si>
+    <t>Products registered in Canada for the control of rusts on alternate hosts are sulphur, sulphur sulphide or polysulfide. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -253,6 +265,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="3">
@@ -282,11 +299,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -602,15 +622,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{819D64D7-060E-CA42-8D71-BFD30EAD3215}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="8" max="8" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="56.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -630,19 +654,22 @@
         <v>6</v>
       </c>
       <c r="G1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -662,13 +689,16 @@
         <v>7</v>
       </c>
       <c r="G2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" t="s">
         <v>11</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="3" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -687,14 +717,14 @@
       <c r="F3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" s="3" customFormat="1">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -713,20 +743,23 @@
       <c r="F4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -745,20 +778,23 @@
       <c r="F5" t="s">
         <v>27</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" t="s">
         <v>15</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>28</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -777,14 +813,17 @@
       <c r="F6" t="s">
         <v>32</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" t="s">
         <v>9</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -803,14 +842,17 @@
       <c r="F7" t="s">
         <v>37</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" t="s">
         <v>9</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -829,16 +871,19 @@
       <c r="F8" t="s">
         <v>41</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" t="s">
         <v>9</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>42</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>11</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>50</v>
       </c>
     </row>
@@ -851,33 +896,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{454143FA-1C04-EF4D-A82F-DA6E2BEF77E5}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -885,7 +930,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -893,7 +938,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
